--- a/Code/Results/Cases/Case_0_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9837550029146847</v>
+        <v>1.022639180589272</v>
       </c>
       <c r="D2">
-        <v>0.9923035484813197</v>
+        <v>1.025283847741079</v>
       </c>
       <c r="E2">
-        <v>0.9923627688118292</v>
+        <v>1.023349496787121</v>
       </c>
       <c r="F2">
-        <v>0.9597263583962181</v>
+        <v>1.021090700653377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037999808496239</v>
+        <v>1.028772394481805</v>
       </c>
       <c r="J2">
-        <v>1.006432698506807</v>
+        <v>1.027823887186856</v>
       </c>
       <c r="K2">
-        <v>1.003871158794789</v>
+        <v>1.028109870440689</v>
       </c>
       <c r="L2">
-        <v>1.003929537891034</v>
+        <v>1.026181195488365</v>
       </c>
       <c r="M2">
-        <v>0.9717768221226792</v>
+        <v>1.023929057002742</v>
       </c>
       <c r="N2">
-        <v>1.007861948378131</v>
+        <v>1.029283514999711</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9891371991369644</v>
+        <v>1.023733011756376</v>
       </c>
       <c r="D3">
-        <v>0.9970137749632608</v>
+        <v>1.026290199793475</v>
       </c>
       <c r="E3">
-        <v>0.9967051266489012</v>
+        <v>1.024281688079975</v>
       </c>
       <c r="F3">
-        <v>0.9679190690915735</v>
+        <v>1.022824625065921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039059476611838</v>
+        <v>1.02890981021903</v>
       </c>
       <c r="J3">
-        <v>1.009928440174187</v>
+        <v>1.028555104608814</v>
       </c>
       <c r="K3">
-        <v>1.00768500823393</v>
+        <v>1.028922952208558</v>
       </c>
       <c r="L3">
-        <v>1.007380340318296</v>
+        <v>1.026919905077879</v>
       </c>
       <c r="M3">
-        <v>0.978979582724547</v>
+        <v>1.025466820857279</v>
       </c>
       <c r="N3">
-        <v>1.011362654399645</v>
+        <v>1.030015770834279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9925306468813564</v>
+        <v>1.024440262294551</v>
       </c>
       <c r="D4">
-        <v>0.9999883025141111</v>
+        <v>1.026941148960525</v>
       </c>
       <c r="E4">
-        <v>0.9994492303113878</v>
+        <v>1.024884785732375</v>
       </c>
       <c r="F4">
-        <v>0.9730695907255398</v>
+        <v>1.02394585655939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039714156320372</v>
+        <v>1.028996988339065</v>
       </c>
       <c r="J4">
-        <v>1.012127368762778</v>
+        <v>1.0290272015447</v>
       </c>
       <c r="K4">
-        <v>1.010086868716237</v>
+        <v>1.029448240513462</v>
       </c>
       <c r="L4">
-        <v>1.009554307186346</v>
+        <v>1.027397188519306</v>
       </c>
       <c r="M4">
-        <v>0.9835042889466703</v>
+        <v>1.026460692095375</v>
       </c>
       <c r="N4">
-        <v>1.013564705719053</v>
+        <v>1.030488538201964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9939368862737282</v>
+        <v>1.024737465237574</v>
       </c>
       <c r="D5">
-        <v>1.001222041000472</v>
+        <v>1.027214754807147</v>
       </c>
       <c r="E5">
-        <v>1.000587830670147</v>
+        <v>1.025138306886164</v>
       </c>
       <c r="F5">
-        <v>0.9752008741466559</v>
+        <v>1.02441705537307</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039982183579563</v>
+        <v>1.029033221845327</v>
       </c>
       <c r="J5">
-        <v>1.013037352731052</v>
+        <v>1.029225421133059</v>
       </c>
       <c r="K5">
-        <v>1.011081508854577</v>
+        <v>1.029668874357661</v>
       </c>
       <c r="L5">
-        <v>1.010454744032162</v>
+        <v>1.027597669344476</v>
       </c>
       <c r="M5">
-        <v>0.9853757333939877</v>
+        <v>1.026878244308405</v>
       </c>
       <c r="N5">
-        <v>1.014475981968939</v>
+        <v>1.030687039284874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9941718331691949</v>
+        <v>1.024787359637374</v>
       </c>
       <c r="D6">
-        <v>1.001428230820857</v>
+        <v>1.027260691353823</v>
       </c>
       <c r="E6">
-        <v>1.000778145454444</v>
+        <v>1.025180872995954</v>
       </c>
       <c r="F6">
-        <v>0.9755567898593106</v>
+        <v>1.024496162192127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040026770424978</v>
+        <v>1.029039281210204</v>
       </c>
       <c r="J6">
-        <v>1.013189313925206</v>
+        <v>1.029258688454325</v>
       </c>
       <c r="K6">
-        <v>1.011247646791733</v>
+        <v>1.029705908216325</v>
       </c>
       <c r="L6">
-        <v>1.010605156676365</v>
+        <v>1.027631321070729</v>
       </c>
       <c r="M6">
-        <v>0.9856882042102574</v>
+        <v>1.026948337476009</v>
       </c>
       <c r="N6">
-        <v>1.014628158965419</v>
+        <v>1.030720353849552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9925495158917985</v>
+        <v>1.024444234024201</v>
       </c>
       <c r="D7">
-        <v>1.00000485260381</v>
+        <v>1.026944805102525</v>
       </c>
       <c r="E7">
-        <v>0.9994645024691123</v>
+        <v>1.024888173376087</v>
       </c>
       <c r="F7">
-        <v>0.973098199992481</v>
+        <v>1.023952153386058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039717765725076</v>
+        <v>1.02899747412805</v>
       </c>
       <c r="J7">
-        <v>1.012139583951077</v>
+        <v>1.029029851145113</v>
       </c>
       <c r="K7">
-        <v>1.010100217613707</v>
+        <v>1.029451189407539</v>
       </c>
       <c r="L7">
-        <v>1.009566391134151</v>
+        <v>1.027399868017147</v>
       </c>
       <c r="M7">
-        <v>0.9835294137948485</v>
+        <v>1.026466272504938</v>
       </c>
       <c r="N7">
-        <v>1.01357693825432</v>
+        <v>1.030491191565113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.985593026624876</v>
+        <v>1.023008957201222</v>
       </c>
       <c r="D8">
-        <v>0.9939110675695461</v>
+        <v>1.025623997151068</v>
       </c>
       <c r="E8">
-        <v>0.9938443323795878</v>
+        <v>1.023664554966696</v>
       </c>
       <c r="F8">
-        <v>0.9625276408269041</v>
+        <v>1.021676845662572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038364484456629</v>
+        <v>1.028819194951577</v>
       </c>
       <c r="J8">
-        <v>1.007627561793625</v>
+        <v>1.028071223669672</v>
       </c>
       <c r="K8">
-        <v>1.005174153950174</v>
+        <v>1.028384827889886</v>
       </c>
       <c r="L8">
-        <v>1.005108336817914</v>
+        <v>1.026430993745137</v>
       </c>
       <c r="M8">
-        <v>0.9742403176055494</v>
+        <v>1.02444899726129</v>
       </c>
       <c r="N8">
-        <v>1.009058508507869</v>
+        <v>1.0295312027287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9726032851045107</v>
+        <v>1.020475654810981</v>
       </c>
       <c r="D9">
-        <v>0.9825725752285155</v>
+        <v>1.023294756682117</v>
       </c>
       <c r="E9">
-        <v>0.9834031555133501</v>
+        <v>1.021507627738892</v>
       </c>
       <c r="F9">
-        <v>0.9426427580685727</v>
+        <v>1.01766145411696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03573157608034</v>
+        <v>1.028491717727952</v>
       </c>
       <c r="J9">
-        <v>0.9991620201806634</v>
+        <v>1.026373900722358</v>
       </c>
       <c r="K9">
-        <v>0.9959548735000063</v>
+        <v>1.026499345363279</v>
       </c>
       <c r="L9">
-        <v>0.9967713694664598</v>
+        <v>1.024718217757174</v>
       </c>
       <c r="M9">
-        <v>0.9567404224963295</v>
+        <v>1.020885038486687</v>
       </c>
       <c r="N9">
-        <v>1.000580944854806</v>
+        <v>1.027831469388115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9633767502651817</v>
+        <v>1.01878385780994</v>
       </c>
       <c r="D10">
-        <v>0.9745494699503486</v>
+        <v>1.021740623306226</v>
       </c>
       <c r="E10">
-        <v>0.9760273757025377</v>
+        <v>1.020069099333576</v>
       </c>
       <c r="F10">
-        <v>0.9283760723799245</v>
+        <v>1.01497993940633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033792527214459</v>
+        <v>1.028264427670716</v>
       </c>
       <c r="J10">
-        <v>0.9931227306368198</v>
+        <v>1.025236820518306</v>
       </c>
       <c r="K10">
-        <v>0.9893939656204805</v>
+        <v>1.025237954733939</v>
       </c>
       <c r="L10">
-        <v>0.9908433865468375</v>
+        <v>1.023572599750691</v>
       </c>
       <c r="M10">
-        <v>0.9441712702525358</v>
+        <v>1.01850236053351</v>
       </c>
       <c r="N10">
-        <v>0.9945330788270935</v>
+        <v>1.026692774399749</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9592279705608996</v>
+        <v>1.018050566339804</v>
       </c>
       <c r="D11">
-        <v>0.9709498292023392</v>
+        <v>1.021067335376068</v>
       </c>
       <c r="E11">
-        <v>0.9727214742775896</v>
+        <v>1.019446047473009</v>
       </c>
       <c r="F11">
-        <v>0.9219155913026885</v>
+        <v>1.013817603893067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032904969162622</v>
+        <v>1.028163877442753</v>
       </c>
       <c r="J11">
-        <v>0.9904010965432848</v>
+        <v>1.024743120209659</v>
       </c>
       <c r="K11">
-        <v>0.9864412014053404</v>
+        <v>1.024690694145812</v>
       </c>
       <c r="L11">
-        <v>0.9881768345734211</v>
+        <v>1.023075624041452</v>
       </c>
       <c r="M11">
-        <v>0.9384772928660632</v>
+        <v>1.017468937456996</v>
       </c>
       <c r="N11">
-        <v>0.9918075797009697</v>
+        <v>1.026198372980036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.957661992865479</v>
+        <v>1.017778076538747</v>
       </c>
       <c r="D12">
-        <v>0.9695923977656365</v>
+        <v>1.020817193561582</v>
       </c>
       <c r="E12">
-        <v>0.9714753450091542</v>
+        <v>1.019214592786641</v>
       </c>
       <c r="F12">
-        <v>0.9194690839428377</v>
+        <v>1.013385666578458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032567667103379</v>
+        <v>1.028126207948189</v>
       </c>
       <c r="J12">
-        <v>0.9893729117850648</v>
+        <v>1.02455953523181</v>
       </c>
       <c r="K12">
-        <v>0.9853263041824536</v>
+        <v>1.024487254568623</v>
       </c>
       <c r="L12">
-        <v>0.9871702252802091</v>
+        <v>1.022890886034403</v>
       </c>
       <c r="M12">
-        <v>0.936320822902718</v>
+        <v>1.017084812273505</v>
       </c>
       <c r="N12">
-        <v>0.9907779348024585</v>
+        <v>1.026014527290461</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9579990609432271</v>
+        <v>1.017836531669408</v>
       </c>
       <c r="D13">
-        <v>0.9698845188951928</v>
+        <v>1.020870852245863</v>
       </c>
       <c r="E13">
-        <v>0.9717434891113308</v>
+        <v>1.019264241780214</v>
       </c>
       <c r="F13">
-        <v>0.9199960611400604</v>
+        <v>1.013478327554889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032640371830001</v>
+        <v>1.028134302698747</v>
       </c>
       <c r="J13">
-        <v>0.9895942628964208</v>
+        <v>1.02459892403483</v>
       </c>
       <c r="K13">
-        <v>0.9855662955393327</v>
+        <v>1.02453090043775</v>
       </c>
       <c r="L13">
-        <v>0.9873868964783635</v>
+        <v>1.022930519283682</v>
       </c>
       <c r="M13">
-        <v>0.9367853346188422</v>
+        <v>1.017167220608468</v>
       </c>
       <c r="N13">
-        <v>0.9909996002577821</v>
+        <v>1.026053972030099</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9590990465345268</v>
+        <v>1.01802804456253</v>
       </c>
       <c r="D14">
-        <v>0.9708380482009886</v>
+        <v>1.021046659661933</v>
       </c>
       <c r="E14">
-        <v>0.9726188476993789</v>
+        <v>1.019426915885102</v>
       </c>
       <c r="F14">
-        <v>0.9217143438145955</v>
+        <v>1.013781903841921</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032877245799504</v>
+        <v>1.028160770213962</v>
       </c>
       <c r="J14">
-        <v>0.9903164660063841</v>
+        <v>1.02472794916376</v>
       </c>
       <c r="K14">
-        <v>0.9863494211678027</v>
+        <v>1.024673881095254</v>
       </c>
       <c r="L14">
-        <v>0.9880939642067046</v>
+        <v>1.023060356386798</v>
       </c>
       <c r="M14">
-        <v>0.9382999075856693</v>
+        <v>1.017437191026346</v>
       </c>
       <c r="N14">
-        <v>0.9917228289789999</v>
+        <v>1.026183180389511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9597734205633333</v>
+        <v>1.018146026962035</v>
       </c>
       <c r="D15">
-        <v>0.9714228028561586</v>
+        <v>1.02115497337213</v>
       </c>
       <c r="E15">
-        <v>0.9731557351466066</v>
+        <v>1.019527141347664</v>
       </c>
       <c r="F15">
-        <v>0.9227666950062036</v>
+        <v>1.013968921167281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03302216803762</v>
+        <v>1.028177035222579</v>
       </c>
       <c r="J15">
-        <v>0.9907591141101648</v>
+        <v>1.024807418889414</v>
       </c>
       <c r="K15">
-        <v>0.9868294894356093</v>
+        <v>1.024761954591722</v>
       </c>
       <c r="L15">
-        <v>0.9885274373316613</v>
+        <v>1.023140334832348</v>
       </c>
       <c r="M15">
-        <v>0.9392274713266285</v>
+        <v>1.017603493206482</v>
       </c>
       <c r="N15">
-        <v>0.99216610569386</v>
+        <v>1.026262762971291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9636487007239953</v>
+        <v>1.018832508293598</v>
       </c>
       <c r="D16">
-        <v>0.974785596416804</v>
+        <v>1.021785299924812</v>
       </c>
       <c r="E16">
-        <v>0.9762443053208765</v>
+        <v>1.020110445743154</v>
       </c>
       <c r="F16">
-        <v>0.9287985192761824</v>
+        <v>1.015057053140778</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033850386666843</v>
+        <v>1.028271055908233</v>
       </c>
       <c r="J16">
-        <v>0.9933010087288064</v>
+        <v>1.025269557456174</v>
       </c>
       <c r="K16">
-        <v>0.9895874663529105</v>
+        <v>1.025274251912732</v>
       </c>
       <c r="L16">
-        <v>0.9910181607604558</v>
+        <v>1.023605562970262</v>
       </c>
       <c r="M16">
-        <v>0.9445435586720108</v>
+        <v>1.01857090864904</v>
       </c>
       <c r="N16">
-        <v>0.9947116100944196</v>
+        <v>1.026725557827824</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.966037185530314</v>
+        <v>1.019262921968343</v>
       </c>
       <c r="D17">
-        <v>0.9768603610949034</v>
+        <v>1.022180595290063</v>
       </c>
       <c r="E17">
-        <v>0.9781507728784622</v>
+        <v>1.020476293397657</v>
       </c>
       <c r="F17">
-        <v>0.9325035263651212</v>
+        <v>1.015739274989882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034356789628716</v>
+        <v>1.028329461533777</v>
       </c>
       <c r="J17">
-        <v>0.9948661086952483</v>
+        <v>1.02555908551611</v>
       </c>
       <c r="K17">
-        <v>0.9912866524181393</v>
+        <v>1.025595314681841</v>
       </c>
       <c r="L17">
-        <v>0.9925530597136417</v>
+        <v>1.023897142081668</v>
       </c>
       <c r="M17">
-        <v>0.9478084208199192</v>
+        <v>1.019177279050701</v>
       </c>
       <c r="N17">
-        <v>0.9962789326823331</v>
+        <v>1.027015497050815</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9674156612133975</v>
+        <v>1.019513904519793</v>
       </c>
       <c r="D18">
-        <v>0.9780585289648491</v>
+        <v>1.022411131916662</v>
       </c>
       <c r="E18">
-        <v>0.9792520601032355</v>
+        <v>1.020689670852969</v>
       </c>
       <c r="F18">
-        <v>0.9346376162694394</v>
+        <v>1.016137086269685</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034647571602154</v>
+        <v>1.02836332285039</v>
       </c>
       <c r="J18">
-        <v>0.9957688121483086</v>
+        <v>1.025727833451318</v>
       </c>
       <c r="K18">
-        <v>0.9922670629706524</v>
+        <v>1.025782482039068</v>
       </c>
       <c r="L18">
-        <v>0.9934388057666169</v>
+        <v>1.024067127013121</v>
       </c>
       <c r="M18">
-        <v>0.9496887724497609</v>
+        <v>1.019530800498329</v>
       </c>
       <c r="N18">
-        <v>0.9971829180778385</v>
+        <v>1.027184484627446</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9678832475746136</v>
+        <v>1.019599471212865</v>
       </c>
       <c r="D19">
-        <v>0.9784650793369651</v>
+        <v>1.022489733498542</v>
       </c>
       <c r="E19">
-        <v>0.9796257895373106</v>
+        <v>1.020762424502284</v>
       </c>
       <c r="F19">
-        <v>0.9353608309301563</v>
+        <v>1.016272710077979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034745953482728</v>
+        <v>1.028374833804428</v>
       </c>
       <c r="J19">
-        <v>0.9960749170323538</v>
+        <v>1.025785350329929</v>
       </c>
       <c r="K19">
-        <v>0.9925995806330707</v>
+        <v>1.025846283834855</v>
       </c>
       <c r="L19">
-        <v>0.9937392379961137</v>
+        <v>1.024125072562681</v>
       </c>
       <c r="M19">
-        <v>0.9503259594638175</v>
+        <v>1.019651314612729</v>
       </c>
       <c r="N19">
-        <v>0.9974894576659298</v>
+        <v>1.027242083186621</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9657824556070149</v>
+        <v>1.019216749963369</v>
       </c>
       <c r="D20">
-        <v>0.9766390107252049</v>
+        <v>1.022138187212083</v>
       </c>
       <c r="E20">
-        <v>0.9779473451691236</v>
+        <v>1.020437043000187</v>
       </c>
       <c r="F20">
-        <v>0.9321088338114273</v>
+        <v>1.015666091241382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034302935484898</v>
+        <v>1.028323216441769</v>
       </c>
       <c r="J20">
-        <v>0.9946992510514215</v>
+        <v>1.025528035240382</v>
       </c>
       <c r="K20">
-        <v>0.9911054611166328</v>
+        <v>1.025560878366108</v>
       </c>
       <c r="L20">
-        <v>0.9923893737068818</v>
+        <v>1.02386586754063</v>
       </c>
       <c r="M20">
-        <v>0.9474606382591784</v>
+        <v>1.019112238292942</v>
       </c>
       <c r="N20">
-        <v>0.9961118380815133</v>
+        <v>1.026984402680134</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9587758325269221</v>
+        <v>1.017971651921623</v>
       </c>
       <c r="D21">
-        <v>0.9705578326417188</v>
+        <v>1.020994890230138</v>
       </c>
       <c r="E21">
-        <v>0.9723615893851603</v>
+        <v>1.019379013131464</v>
       </c>
       <c r="F21">
-        <v>0.9212096816604629</v>
+        <v>1.013692513636592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032807706398666</v>
+        <v>1.028152985044995</v>
       </c>
       <c r="J21">
-        <v>0.9901042820001944</v>
+        <v>1.024689960089411</v>
       </c>
       <c r="K21">
-        <v>0.9861193213430315</v>
+        <v>1.02463178135963</v>
       </c>
       <c r="L21">
-        <v>0.9878862056927538</v>
+        <v>1.023022126448424</v>
       </c>
       <c r="M21">
-        <v>0.937855080658504</v>
+        <v>1.01735769888028</v>
       </c>
       <c r="N21">
-        <v>0.991510343647183</v>
+        <v>1.02614513736632</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.954225135518345</v>
+        <v>1.017188155973447</v>
       </c>
       <c r="D22">
-        <v>0.9666156576972779</v>
+        <v>1.020275748169291</v>
       </c>
       <c r="E22">
-        <v>0.9687437044594427</v>
+        <v>1.018713639556003</v>
       </c>
       <c r="F22">
-        <v>0.9140836184404576</v>
+        <v>1.012450518478137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031823242811791</v>
+        <v>1.028044098382739</v>
       </c>
       <c r="J22">
-        <v>0.9871147229942356</v>
+        <v>1.024161855297698</v>
       </c>
       <c r="K22">
-        <v>0.9828787997949652</v>
+        <v>1.024046679348813</v>
       </c>
       <c r="L22">
-        <v>0.9849608683671288</v>
+        <v>1.022490827362008</v>
       </c>
       <c r="M22">
-        <v>0.9315735178436604</v>
+        <v>1.016253007616735</v>
       </c>
       <c r="N22">
-        <v>0.9885165391245289</v>
+        <v>1.025616282605228</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9566520014079349</v>
+        <v>1.017603564837693</v>
       </c>
       <c r="D23">
-        <v>0.9687172771382727</v>
+        <v>1.020657008624404</v>
       </c>
       <c r="E23">
-        <v>0.9706721343997579</v>
+        <v>1.019066381234283</v>
       </c>
       <c r="F23">
-        <v>0.9178887825040827</v>
+        <v>1.013109034133607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032349483975784</v>
+        <v>1.028101997248579</v>
       </c>
       <c r="J23">
-        <v>0.9887095252908646</v>
+        <v>1.024441925503268</v>
       </c>
       <c r="K23">
-        <v>0.9846071427832014</v>
+        <v>1.024356942894879</v>
       </c>
       <c r="L23">
-        <v>0.9865209790580388</v>
+        <v>1.02277255594051</v>
       </c>
       <c r="M23">
-        <v>0.9349278184176614</v>
+        <v>1.016838774694291</v>
       </c>
       <c r="N23">
-        <v>0.9901136062233454</v>
+        <v>1.025896750542614</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9658976023451317</v>
+        <v>1.019237613322636</v>
       </c>
       <c r="D24">
-        <v>0.9767390664250571</v>
+        <v>1.022157349697435</v>
       </c>
       <c r="E24">
-        <v>0.9780392984345687</v>
+        <v>1.020454778612583</v>
       </c>
       <c r="F24">
-        <v>0.9322872614397962</v>
+        <v>1.015699160188335</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034327284020959</v>
+        <v>1.028326038965625</v>
       </c>
       <c r="J24">
-        <v>0.9947746782461641</v>
+        <v>1.02554206592164</v>
       </c>
       <c r="K24">
-        <v>0.9911873666238125</v>
+        <v>1.025576438973513</v>
       </c>
       <c r="L24">
-        <v>0.9924633657469444</v>
+        <v>1.023879999432148</v>
       </c>
       <c r="M24">
-        <v>0.947617860082542</v>
+        <v>1.01914162791813</v>
       </c>
       <c r="N24">
-        <v>0.9961873723915238</v>
+        <v>1.026998453286568</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9760553899043732</v>
+        <v>1.021131080750849</v>
       </c>
       <c r="D25">
-        <v>0.9855808582992244</v>
+        <v>1.0238971447205</v>
       </c>
       <c r="E25">
-        <v>0.9861713563652016</v>
+        <v>1.022065341686242</v>
       </c>
       <c r="F25">
-        <v>0.947948310504607</v>
+        <v>1.018700297272295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036443296716005</v>
+        <v>1.028577958905247</v>
       </c>
       <c r="J25">
-        <v>1.00141635799978</v>
+        <v>1.026813667978081</v>
       </c>
       <c r="K25">
-        <v>0.9984072144644506</v>
+        <v>1.026987557237068</v>
       </c>
       <c r="L25">
-        <v>0.9989882057452012</v>
+        <v>1.025161670068929</v>
       </c>
       <c r="M25">
-        <v>0.9614122438707438</v>
+        <v>1.021807553916295</v>
       </c>
       <c r="N25">
-        <v>1.002838484092201</v>
+        <v>1.028271861163784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022639180589272</v>
+        <v>0.9837550029146849</v>
       </c>
       <c r="D2">
-        <v>1.025283847741079</v>
+        <v>0.9923035484813199</v>
       </c>
       <c r="E2">
-        <v>1.023349496787121</v>
+        <v>0.9923627688118292</v>
       </c>
       <c r="F2">
-        <v>1.021090700653377</v>
+        <v>0.9597263583962184</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028772394481805</v>
+        <v>1.037999808496239</v>
       </c>
       <c r="J2">
-        <v>1.027823887186856</v>
+        <v>1.006432698506808</v>
       </c>
       <c r="K2">
-        <v>1.028109870440689</v>
+        <v>1.003871158794789</v>
       </c>
       <c r="L2">
-        <v>1.026181195488365</v>
+        <v>1.003929537891034</v>
       </c>
       <c r="M2">
-        <v>1.023929057002742</v>
+        <v>0.9717768221226796</v>
       </c>
       <c r="N2">
-        <v>1.029283514999711</v>
+        <v>1.007861948378131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023733011756376</v>
+        <v>0.9891371991369642</v>
       </c>
       <c r="D3">
-        <v>1.026290199793475</v>
+        <v>0.9970137749632605</v>
       </c>
       <c r="E3">
-        <v>1.024281688079975</v>
+        <v>0.9967051266489013</v>
       </c>
       <c r="F3">
-        <v>1.022824625065921</v>
+        <v>0.9679190690915734</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02890981021903</v>
+        <v>1.039059476611838</v>
       </c>
       <c r="J3">
-        <v>1.028555104608814</v>
+        <v>1.009928440174187</v>
       </c>
       <c r="K3">
-        <v>1.028922952208558</v>
+        <v>1.00768500823393</v>
       </c>
       <c r="L3">
-        <v>1.026919905077879</v>
+        <v>1.007380340318296</v>
       </c>
       <c r="M3">
-        <v>1.025466820857279</v>
+        <v>0.978979582724547</v>
       </c>
       <c r="N3">
-        <v>1.030015770834279</v>
+        <v>1.011362654399645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024440262294551</v>
+        <v>0.9925306468813552</v>
       </c>
       <c r="D4">
-        <v>1.026941148960525</v>
+        <v>0.9999883025141099</v>
       </c>
       <c r="E4">
-        <v>1.024884785732375</v>
+        <v>0.9994492303113863</v>
       </c>
       <c r="F4">
-        <v>1.02394585655939</v>
+        <v>0.9730695907255382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028996988339065</v>
+        <v>1.039714156320371</v>
       </c>
       <c r="J4">
-        <v>1.0290272015447</v>
+        <v>1.012127368762777</v>
       </c>
       <c r="K4">
-        <v>1.029448240513462</v>
+        <v>1.010086868716235</v>
       </c>
       <c r="L4">
-        <v>1.027397188519306</v>
+        <v>1.009554307186345</v>
       </c>
       <c r="M4">
-        <v>1.026460692095375</v>
+        <v>0.983504288946669</v>
       </c>
       <c r="N4">
-        <v>1.030488538201964</v>
+        <v>1.013564705719052</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024737465237574</v>
+        <v>0.9939368862737277</v>
       </c>
       <c r="D5">
-        <v>1.027214754807147</v>
+        <v>1.001222041000471</v>
       </c>
       <c r="E5">
-        <v>1.025138306886164</v>
+        <v>1.000587830670146</v>
       </c>
       <c r="F5">
-        <v>1.02441705537307</v>
+        <v>0.9752008741466553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029033221845327</v>
+        <v>1.039982183579563</v>
       </c>
       <c r="J5">
-        <v>1.029225421133059</v>
+        <v>1.013037352731052</v>
       </c>
       <c r="K5">
-        <v>1.029668874357661</v>
+        <v>1.011081508854576</v>
       </c>
       <c r="L5">
-        <v>1.027597669344476</v>
+        <v>1.010454744032162</v>
       </c>
       <c r="M5">
-        <v>1.026878244308405</v>
+        <v>0.9853757333939871</v>
       </c>
       <c r="N5">
-        <v>1.030687039284874</v>
+        <v>1.014475981968938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024787359637374</v>
+        <v>0.9941718331691951</v>
       </c>
       <c r="D6">
-        <v>1.027260691353823</v>
+        <v>1.001428230820857</v>
       </c>
       <c r="E6">
-        <v>1.025180872995954</v>
+        <v>1.000778145454444</v>
       </c>
       <c r="F6">
-        <v>1.024496162192127</v>
+        <v>0.9755567898593104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029039281210204</v>
+        <v>1.040026770424978</v>
       </c>
       <c r="J6">
-        <v>1.029258688454325</v>
+        <v>1.013189313925206</v>
       </c>
       <c r="K6">
-        <v>1.029705908216325</v>
+        <v>1.011247646791733</v>
       </c>
       <c r="L6">
-        <v>1.027631321070729</v>
+        <v>1.010605156676365</v>
       </c>
       <c r="M6">
-        <v>1.026948337476009</v>
+        <v>0.9856882042102573</v>
       </c>
       <c r="N6">
-        <v>1.030720353849552</v>
+        <v>1.014628158965418</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024444234024201</v>
+        <v>0.9925495158917977</v>
       </c>
       <c r="D7">
-        <v>1.026944805102525</v>
+        <v>1.000004852603809</v>
       </c>
       <c r="E7">
-        <v>1.024888173376087</v>
+        <v>0.9994645024691121</v>
       </c>
       <c r="F7">
-        <v>1.023952153386058</v>
+        <v>0.9730981999924802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02899747412805</v>
+        <v>1.039717765725076</v>
       </c>
       <c r="J7">
-        <v>1.029029851145113</v>
+        <v>1.012139583951076</v>
       </c>
       <c r="K7">
-        <v>1.029451189407539</v>
+        <v>1.010100217613706</v>
       </c>
       <c r="L7">
-        <v>1.027399868017147</v>
+        <v>1.009566391134151</v>
       </c>
       <c r="M7">
-        <v>1.026466272504938</v>
+        <v>0.9835294137948478</v>
       </c>
       <c r="N7">
-        <v>1.030491191565113</v>
+        <v>1.01357693825432</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023008957201222</v>
+        <v>0.9855930266248764</v>
       </c>
       <c r="D8">
-        <v>1.025623997151068</v>
+        <v>0.9939110675695465</v>
       </c>
       <c r="E8">
-        <v>1.023664554966696</v>
+        <v>0.9938443323795878</v>
       </c>
       <c r="F8">
-        <v>1.021676845662572</v>
+        <v>0.9625276408269042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028819194951577</v>
+        <v>1.038364484456629</v>
       </c>
       <c r="J8">
-        <v>1.028071223669672</v>
+        <v>1.007627561793625</v>
       </c>
       <c r="K8">
-        <v>1.028384827889886</v>
+        <v>1.005174153950174</v>
       </c>
       <c r="L8">
-        <v>1.026430993745137</v>
+        <v>1.005108336817914</v>
       </c>
       <c r="M8">
-        <v>1.02444899726129</v>
+        <v>0.9742403176055495</v>
       </c>
       <c r="N8">
-        <v>1.0295312027287</v>
+        <v>1.009058508507869</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020475654810981</v>
+        <v>0.9726032851045106</v>
       </c>
       <c r="D9">
-        <v>1.023294756682117</v>
+        <v>0.9825725752285156</v>
       </c>
       <c r="E9">
-        <v>1.021507627738892</v>
+        <v>0.9834031555133499</v>
       </c>
       <c r="F9">
-        <v>1.01766145411696</v>
+        <v>0.9426427580685729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028491717727952</v>
+        <v>1.03573157608034</v>
       </c>
       <c r="J9">
-        <v>1.026373900722358</v>
+        <v>0.9991620201806635</v>
       </c>
       <c r="K9">
-        <v>1.026499345363279</v>
+        <v>0.9959548735000067</v>
       </c>
       <c r="L9">
-        <v>1.024718217757174</v>
+        <v>0.9967713694664597</v>
       </c>
       <c r="M9">
-        <v>1.020885038486687</v>
+        <v>0.9567404224963297</v>
       </c>
       <c r="N9">
-        <v>1.027831469388115</v>
+        <v>1.000580944854806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01878385780994</v>
+        <v>0.963376750265181</v>
       </c>
       <c r="D10">
-        <v>1.021740623306226</v>
+        <v>0.9745494699503481</v>
       </c>
       <c r="E10">
-        <v>1.020069099333576</v>
+        <v>0.9760273757025372</v>
       </c>
       <c r="F10">
-        <v>1.01497993940633</v>
+        <v>0.9283760723799231</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028264427670716</v>
+        <v>1.033792527214459</v>
       </c>
       <c r="J10">
-        <v>1.025236820518306</v>
+        <v>0.9931227306368192</v>
       </c>
       <c r="K10">
-        <v>1.025237954733939</v>
+        <v>0.9893939656204802</v>
       </c>
       <c r="L10">
-        <v>1.023572599750691</v>
+        <v>0.990843386546837</v>
       </c>
       <c r="M10">
-        <v>1.01850236053351</v>
+        <v>0.9441712702525346</v>
       </c>
       <c r="N10">
-        <v>1.026692774399749</v>
+        <v>0.994533078827093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018050566339804</v>
+        <v>0.9592279705608989</v>
       </c>
       <c r="D11">
-        <v>1.021067335376068</v>
+        <v>0.9709498292023383</v>
       </c>
       <c r="E11">
-        <v>1.019446047473009</v>
+        <v>0.9727214742775894</v>
       </c>
       <c r="F11">
-        <v>1.013817603893067</v>
+        <v>0.9219155913026875</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028163877442753</v>
+        <v>1.032904969162622</v>
       </c>
       <c r="J11">
-        <v>1.024743120209659</v>
+        <v>0.9904010965432843</v>
       </c>
       <c r="K11">
-        <v>1.024690694145812</v>
+        <v>0.9864412014053396</v>
       </c>
       <c r="L11">
-        <v>1.023075624041452</v>
+        <v>0.988176834573421</v>
       </c>
       <c r="M11">
-        <v>1.017468937456996</v>
+        <v>0.9384772928660623</v>
       </c>
       <c r="N11">
-        <v>1.026198372980036</v>
+        <v>0.9918075797009692</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017778076538747</v>
+        <v>0.9576619928654797</v>
       </c>
       <c r="D12">
-        <v>1.020817193561582</v>
+        <v>0.9695923977656368</v>
       </c>
       <c r="E12">
-        <v>1.019214592786641</v>
+        <v>0.9714753450091544</v>
       </c>
       <c r="F12">
-        <v>1.013385666578458</v>
+        <v>0.9194690839428385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028126207948189</v>
+        <v>1.032567667103379</v>
       </c>
       <c r="J12">
-        <v>1.02455953523181</v>
+        <v>0.9893729117850653</v>
       </c>
       <c r="K12">
-        <v>1.024487254568623</v>
+        <v>0.9853263041824541</v>
       </c>
       <c r="L12">
-        <v>1.022890886034403</v>
+        <v>0.9871702252802094</v>
       </c>
       <c r="M12">
-        <v>1.017084812273505</v>
+        <v>0.9363208229027187</v>
       </c>
       <c r="N12">
-        <v>1.026014527290461</v>
+        <v>0.9907779348024591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017836531669408</v>
+        <v>0.957999060943226</v>
       </c>
       <c r="D13">
-        <v>1.020870852245863</v>
+        <v>0.9698845188951918</v>
       </c>
       <c r="E13">
-        <v>1.019264241780214</v>
+        <v>0.9717434891113297</v>
       </c>
       <c r="F13">
-        <v>1.013478327554889</v>
+        <v>0.9199960611400591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028134302698747</v>
+        <v>1.03264037183</v>
       </c>
       <c r="J13">
-        <v>1.02459892403483</v>
+        <v>0.9895942628964199</v>
       </c>
       <c r="K13">
-        <v>1.02453090043775</v>
+        <v>0.9855662955393317</v>
       </c>
       <c r="L13">
-        <v>1.022930519283682</v>
+        <v>0.9873868964783624</v>
       </c>
       <c r="M13">
-        <v>1.017167220608468</v>
+        <v>0.9367853346188411</v>
       </c>
       <c r="N13">
-        <v>1.026053972030099</v>
+        <v>0.9909996002577813</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01802804456253</v>
+        <v>0.9590990465345263</v>
       </c>
       <c r="D14">
-        <v>1.021046659661933</v>
+        <v>0.9708380482009881</v>
       </c>
       <c r="E14">
-        <v>1.019426915885102</v>
+        <v>0.9726188476993786</v>
       </c>
       <c r="F14">
-        <v>1.013781903841921</v>
+        <v>0.9217143438145949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028160770213962</v>
+        <v>1.032877245799504</v>
       </c>
       <c r="J14">
-        <v>1.02472794916376</v>
+        <v>0.9903164660063837</v>
       </c>
       <c r="K14">
-        <v>1.024673881095254</v>
+        <v>0.9863494211678022</v>
       </c>
       <c r="L14">
-        <v>1.023060356386798</v>
+        <v>0.9880939642067044</v>
       </c>
       <c r="M14">
-        <v>1.017437191026346</v>
+        <v>0.9382999075856689</v>
       </c>
       <c r="N14">
-        <v>1.026183180389511</v>
+        <v>0.9917228289789993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018146026962035</v>
+        <v>0.9597734205633333</v>
       </c>
       <c r="D15">
-        <v>1.02115497337213</v>
+        <v>0.9714228028561588</v>
       </c>
       <c r="E15">
-        <v>1.019527141347664</v>
+        <v>0.9731557351466064</v>
       </c>
       <c r="F15">
-        <v>1.013968921167281</v>
+        <v>0.9227666950062036</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028177035222579</v>
+        <v>1.03302216803762</v>
       </c>
       <c r="J15">
-        <v>1.024807418889414</v>
+        <v>0.9907591141101648</v>
       </c>
       <c r="K15">
-        <v>1.024761954591722</v>
+        <v>0.9868294894356094</v>
       </c>
       <c r="L15">
-        <v>1.023140334832348</v>
+        <v>0.9885274373316609</v>
       </c>
       <c r="M15">
-        <v>1.017603493206482</v>
+        <v>0.9392274713266285</v>
       </c>
       <c r="N15">
-        <v>1.026262762971291</v>
+        <v>0.9921661056938599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018832508293598</v>
+        <v>0.9636487007239942</v>
       </c>
       <c r="D16">
-        <v>1.021785299924812</v>
+        <v>0.9747855964168031</v>
       </c>
       <c r="E16">
-        <v>1.020110445743154</v>
+        <v>0.9762443053208756</v>
       </c>
       <c r="F16">
-        <v>1.015057053140778</v>
+        <v>0.9287985192761817</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028271055908233</v>
+        <v>1.033850386666842</v>
       </c>
       <c r="J16">
-        <v>1.025269557456174</v>
+        <v>0.9933010087288054</v>
       </c>
       <c r="K16">
-        <v>1.025274251912732</v>
+        <v>0.9895874663529094</v>
       </c>
       <c r="L16">
-        <v>1.023605562970262</v>
+        <v>0.9910181607604549</v>
       </c>
       <c r="M16">
-        <v>1.01857090864904</v>
+        <v>0.94454355867201</v>
       </c>
       <c r="N16">
-        <v>1.026725557827824</v>
+        <v>0.9947116100944183</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019262921968343</v>
+        <v>0.9660371855303127</v>
       </c>
       <c r="D17">
-        <v>1.022180595290063</v>
+        <v>0.9768603610949023</v>
       </c>
       <c r="E17">
-        <v>1.020476293397657</v>
+        <v>0.9781507728784611</v>
       </c>
       <c r="F17">
-        <v>1.015739274989882</v>
+        <v>0.9325035263651199</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028329461533777</v>
+        <v>1.034356789628716</v>
       </c>
       <c r="J17">
-        <v>1.02555908551611</v>
+        <v>0.9948661086952471</v>
       </c>
       <c r="K17">
-        <v>1.025595314681841</v>
+        <v>0.9912866524181381</v>
       </c>
       <c r="L17">
-        <v>1.023897142081668</v>
+        <v>0.9925530597136408</v>
       </c>
       <c r="M17">
-        <v>1.019177279050701</v>
+        <v>0.947808420819918</v>
       </c>
       <c r="N17">
-        <v>1.027015497050815</v>
+        <v>0.996278932682332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019513904519793</v>
+        <v>0.9674156612133964</v>
       </c>
       <c r="D18">
-        <v>1.022411131916662</v>
+        <v>0.9780585289648479</v>
       </c>
       <c r="E18">
-        <v>1.020689670852969</v>
+        <v>0.9792520601032343</v>
       </c>
       <c r="F18">
-        <v>1.016137086269685</v>
+        <v>0.9346376162694389</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02836332285039</v>
+        <v>1.034647571602154</v>
       </c>
       <c r="J18">
-        <v>1.025727833451318</v>
+        <v>0.9957688121483076</v>
       </c>
       <c r="K18">
-        <v>1.025782482039068</v>
+        <v>0.9922670629706514</v>
       </c>
       <c r="L18">
-        <v>1.024067127013121</v>
+        <v>0.9934388057666159</v>
       </c>
       <c r="M18">
-        <v>1.019530800498329</v>
+        <v>0.9496887724497602</v>
       </c>
       <c r="N18">
-        <v>1.027184484627446</v>
+        <v>0.9971829180778374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019599471212865</v>
+        <v>0.9678832475746136</v>
       </c>
       <c r="D19">
-        <v>1.022489733498542</v>
+        <v>0.9784650793369652</v>
       </c>
       <c r="E19">
-        <v>1.020762424502284</v>
+        <v>0.9796257895373104</v>
       </c>
       <c r="F19">
-        <v>1.016272710077979</v>
+        <v>0.9353608309301565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028374833804428</v>
+        <v>1.034745953482728</v>
       </c>
       <c r="J19">
-        <v>1.025785350329929</v>
+        <v>0.9960749170323538</v>
       </c>
       <c r="K19">
-        <v>1.025846283834855</v>
+        <v>0.9925995806330705</v>
       </c>
       <c r="L19">
-        <v>1.024125072562681</v>
+        <v>0.9937392379961135</v>
       </c>
       <c r="M19">
-        <v>1.019651314612729</v>
+        <v>0.9503259594638178</v>
       </c>
       <c r="N19">
-        <v>1.027242083186621</v>
+        <v>0.9974894576659297</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019216749963369</v>
+        <v>0.9657824556070157</v>
       </c>
       <c r="D20">
-        <v>1.022138187212083</v>
+        <v>0.9766390107252058</v>
       </c>
       <c r="E20">
-        <v>1.020437043000187</v>
+        <v>0.9779473451691244</v>
       </c>
       <c r="F20">
-        <v>1.015666091241382</v>
+        <v>0.9321088338114283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028323216441769</v>
+        <v>1.034302935484898</v>
       </c>
       <c r="J20">
-        <v>1.025528035240382</v>
+        <v>0.9946992510514224</v>
       </c>
       <c r="K20">
-        <v>1.025560878366108</v>
+        <v>0.9911054611166337</v>
       </c>
       <c r="L20">
-        <v>1.02386586754063</v>
+        <v>0.9923893737068826</v>
       </c>
       <c r="M20">
-        <v>1.019112238292942</v>
+        <v>0.9474606382591793</v>
       </c>
       <c r="N20">
-        <v>1.026984402680134</v>
+        <v>0.9961118380815144</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017971651921623</v>
+        <v>0.9587758325269214</v>
       </c>
       <c r="D21">
-        <v>1.020994890230138</v>
+        <v>0.970557832641718</v>
       </c>
       <c r="E21">
-        <v>1.019379013131464</v>
+        <v>0.9723615893851595</v>
       </c>
       <c r="F21">
-        <v>1.013692513636592</v>
+        <v>0.9212096816604625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028152985044995</v>
+        <v>1.032807706398666</v>
       </c>
       <c r="J21">
-        <v>1.024689960089411</v>
+        <v>0.9901042820001937</v>
       </c>
       <c r="K21">
-        <v>1.02463178135963</v>
+        <v>0.9861193213430309</v>
       </c>
       <c r="L21">
-        <v>1.023022126448424</v>
+        <v>0.987886205692753</v>
       </c>
       <c r="M21">
-        <v>1.01735769888028</v>
+        <v>0.9378550806585035</v>
       </c>
       <c r="N21">
-        <v>1.02614513736632</v>
+        <v>0.9915103436471827</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017188155973447</v>
+        <v>0.9542251355183452</v>
       </c>
       <c r="D22">
-        <v>1.020275748169291</v>
+        <v>0.9666156576972783</v>
       </c>
       <c r="E22">
-        <v>1.018713639556003</v>
+        <v>0.968743704459443</v>
       </c>
       <c r="F22">
-        <v>1.012450518478137</v>
+        <v>0.914083618440457</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028044098382739</v>
+        <v>1.031823242811791</v>
       </c>
       <c r="J22">
-        <v>1.024161855297698</v>
+        <v>0.9871147229942357</v>
       </c>
       <c r="K22">
-        <v>1.024046679348813</v>
+        <v>0.9828787997949651</v>
       </c>
       <c r="L22">
-        <v>1.022490827362008</v>
+        <v>0.9849608683671293</v>
       </c>
       <c r="M22">
-        <v>1.016253007616735</v>
+        <v>0.9315735178436598</v>
       </c>
       <c r="N22">
-        <v>1.025616282605228</v>
+        <v>0.988516539124529</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017603564837693</v>
+        <v>0.9566520014079352</v>
       </c>
       <c r="D23">
-        <v>1.020657008624404</v>
+        <v>0.968717277138273</v>
       </c>
       <c r="E23">
-        <v>1.019066381234283</v>
+        <v>0.970672134399758</v>
       </c>
       <c r="F23">
-        <v>1.013109034133607</v>
+        <v>0.9178887825040833</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028101997248579</v>
+        <v>1.032349483975784</v>
       </c>
       <c r="J23">
-        <v>1.024441925503268</v>
+        <v>0.9887095252908651</v>
       </c>
       <c r="K23">
-        <v>1.024356942894879</v>
+        <v>0.9846071427832017</v>
       </c>
       <c r="L23">
-        <v>1.02277255594051</v>
+        <v>0.9865209790580389</v>
       </c>
       <c r="M23">
-        <v>1.016838774694291</v>
+        <v>0.9349278184176618</v>
       </c>
       <c r="N23">
-        <v>1.025896750542614</v>
+        <v>0.9901136062233457</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019237613322636</v>
+        <v>0.9658976023451307</v>
       </c>
       <c r="D24">
-        <v>1.022157349697435</v>
+        <v>0.9767390664250557</v>
       </c>
       <c r="E24">
-        <v>1.020454778612583</v>
+        <v>0.9780392984345673</v>
       </c>
       <c r="F24">
-        <v>1.015699160188335</v>
+        <v>0.9322872614397947</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028326038965625</v>
+        <v>1.034327284020959</v>
       </c>
       <c r="J24">
-        <v>1.02554206592164</v>
+        <v>0.9947746782461628</v>
       </c>
       <c r="K24">
-        <v>1.025576438973513</v>
+        <v>0.9911873666238112</v>
       </c>
       <c r="L24">
-        <v>1.023879999432148</v>
+        <v>0.992463365746943</v>
       </c>
       <c r="M24">
-        <v>1.01914162791813</v>
+        <v>0.9476178600825402</v>
       </c>
       <c r="N24">
-        <v>1.026998453286568</v>
+        <v>0.9961873723915229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021131080750849</v>
+        <v>0.9760553899043717</v>
       </c>
       <c r="D25">
-        <v>1.0238971447205</v>
+        <v>0.9855808582992229</v>
       </c>
       <c r="E25">
-        <v>1.022065341686242</v>
+        <v>0.9861713563652003</v>
       </c>
       <c r="F25">
-        <v>1.018700297272295</v>
+        <v>0.9479483105046055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028577958905247</v>
+        <v>1.036443296716005</v>
       </c>
       <c r="J25">
-        <v>1.026813667978081</v>
+        <v>1.001416357999779</v>
       </c>
       <c r="K25">
-        <v>1.026987557237068</v>
+        <v>0.9984072144644494</v>
       </c>
       <c r="L25">
-        <v>1.025161670068929</v>
+        <v>0.9989882057452001</v>
       </c>
       <c r="M25">
-        <v>1.021807553916295</v>
+        <v>0.9614122438707424</v>
       </c>
       <c r="N25">
-        <v>1.028271861163784</v>
+        <v>1.0028384840922</v>
       </c>
     </row>
   </sheetData>
